--- a/docs/スクラム開発プラクティス集.xlsx
+++ b/docs/スクラム開発プラクティス集.xlsx
@@ -3388,16 +3388,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="21"/>
   </si>
@@ -4104,6 +4094,9 @@
   <si>
     <t>第1.1版</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクラム開発プラクティス集©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
   </si>
 </sst>
 </file>
@@ -7505,7 +7498,7 @@
   </sheetPr>
   <dimension ref="A1:AI513"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="77" zoomScaleNormal="100" zoomScaleSheetLayoutView="77" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <cols>
@@ -8345,7 +8338,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -8681,9 +8674,7 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
-      <c r="R32" s="14" t="s">
-        <v>128</v>
-      </c>
+      <c r="R32" s="14"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
@@ -8890,12 +8881,12 @@
     <row r="38" spans="1:35" ht="13.5" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -8909,7 +8900,7 @@
       <c r="O38" s="19"/>
       <c r="P38" s="19"/>
       <c r="S38" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
@@ -8929,7 +8920,9 @@
     </row>
     <row r="39" spans="1:35" ht="13.5" customHeight="1">
       <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -9457,7 +9450,7 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
@@ -9515,13 +9508,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>108</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>91</v>
@@ -9538,7 +9531,7 @@
         <v>71</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D4" s="27" t="s">
         <v>30</v>
@@ -9547,7 +9540,7 @@
         <v>31</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="161.25" customHeight="1">
@@ -9558,7 +9551,7 @@
         <v>116</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>112</v>
@@ -9581,7 +9574,7 @@
         <v>123</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>77</v>
@@ -9618,7 +9611,7 @@
         <v>115</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>29</v>
@@ -9664,7 +9657,7 @@
         <v>82</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>121</v>
@@ -9718,7 +9711,7 @@
         <v>119</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>120</v>
@@ -9795,7 +9788,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C17" s="28" t="s">
         <v>21</v>
@@ -9835,10 +9828,10 @@
         <v>36</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D19" s="27" t="s">
         <v>37</v>
@@ -9855,7 +9848,7 @@
         <v>38</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>103</v>
@@ -9867,7 +9860,7 @@
         <v>39</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="161.25" customHeight="1">
@@ -9895,7 +9888,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>125</v>

--- a/docs/スクラム開発プラクティス集.xlsx
+++ b/docs/スクラム開発プラクティス集.xlsx
@@ -1,20 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F713993-3C1C-440B-9822-3C01B71E5613}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="20700" windowHeight="11760"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
     <sheet name="プラクティス集" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AI$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AI$38</definedName>
     <definedName name="Z_026A7AE2_67A5_4548_A903_6286B650CDBC_.wvu.Rows" localSheetId="1" hidden="1">プラクティス集!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -160,108 +171,6 @@
     </rPh>
     <rPh sb="55" eb="57">
       <t>カクダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>* 各イベントにかかる時間が減ったことにより、タスク消化にかけることの出来る時間が増えた
-* 議論が長くなってしまう、次の明確なアクションが決まらず時間がすぎる場合は、情報が足りていないという認識をし、必要な情報を集めるというアクションを取るようになった
-* 日々の仕事を進める上でもタイムボックスを意識するため無駄な時間を減らす意識が見に付いた</t>
-    <rPh sb="2" eb="3">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ヘ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ショウカ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>デキ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ギロン</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>メイカク</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>ニンシキ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="107" eb="108">
-      <t>アツ</t>
-    </rPh>
-    <rPh sb="119" eb="120">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="130" eb="132">
-      <t>ヒビ</t>
-    </rPh>
-    <rPh sb="133" eb="135">
-      <t>シゴト</t>
-    </rPh>
-    <rPh sb="136" eb="137">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="139" eb="140">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="150" eb="152">
-      <t>イシキ</t>
-    </rPh>
-    <rPh sb="156" eb="158">
-      <t>ムダ</t>
-    </rPh>
-    <rPh sb="159" eb="161">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="162" eb="163">
-      <t>ヘ</t>
-    </rPh>
-    <rPh sb="165" eb="167">
-      <t>イシキ</t>
-    </rPh>
-    <rPh sb="168" eb="169">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="170" eb="171">
-      <t>ツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3389,11 +3298,11 @@
   </si>
   <si>
     <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="21"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="21"/>
+    <phoneticPr fontId="19"/>
   </si>
   <si>
     <t>の下に提供されています。</t>
@@ -4098,15 +4007,111 @@
   <si>
     <t>スクラム開発プラクティス集©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
   </si>
+  <si>
+    <t>* 各イベントにかかる時間が減ったことにより、タスク消化にかけることの出来る時間が増えた
+* 議論が長くなってしまう、次の明確なアクションが決まらず時間がすぎる場合は、情報が足りていないという認識をし、必要な情報を集めるというアクションを取るようになった
+* 日々の仕事を進める上でもタイムボックスを意識するため無駄な時間を減らす意識が身に付いた</t>
+    <rPh sb="2" eb="3">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショウカ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ギロン</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>メイカク</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>ヒビ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>イシキ</t>
+    </rPh>
+    <rPh sb="156" eb="158">
+      <t>ムダ</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>イシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
   </numFmts>
-  <fonts count="53">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4222,19 +4227,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -4786,1514 +4778,1514 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -6363,7 +6355,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
@@ -6377,41 +6369,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6461,13 +6453,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6476,22 +6462,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6500,577 +6486,580 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="560">
-    <cellStyle name="20% - アクセント 1 2" xfId="7"/>
-    <cellStyle name="20% - アクセント 2 2" xfId="8"/>
-    <cellStyle name="20% - アクセント 3 2" xfId="9"/>
-    <cellStyle name="20% - アクセント 4 2" xfId="10"/>
-    <cellStyle name="20% - アクセント 5 2" xfId="11"/>
-    <cellStyle name="20% - アクセント 6 2" xfId="12"/>
-    <cellStyle name="40% - アクセント 1 2" xfId="13"/>
-    <cellStyle name="40% - アクセント 2 2" xfId="14"/>
-    <cellStyle name="40% - アクセント 3 2" xfId="15"/>
-    <cellStyle name="40% - アクセント 4 2" xfId="16"/>
-    <cellStyle name="40% - アクセント 5 2" xfId="17"/>
-    <cellStyle name="40% - アクセント 6 2" xfId="18"/>
-    <cellStyle name="60% - アクセント 1 2" xfId="19"/>
-    <cellStyle name="60% - アクセント 2 2" xfId="20"/>
-    <cellStyle name="60% - アクセント 3 2" xfId="21"/>
-    <cellStyle name="60% - アクセント 4 2" xfId="22"/>
-    <cellStyle name="60% - アクセント 5 2" xfId="23"/>
-    <cellStyle name="60% - アクセント 6 2" xfId="24"/>
-    <cellStyle name="Calc Currency (0)" xfId="25"/>
-    <cellStyle name="Header1" xfId="26"/>
-    <cellStyle name="Header2" xfId="27"/>
-    <cellStyle name="Header2 2" xfId="28"/>
-    <cellStyle name="Header2 2 10" xfId="29"/>
-    <cellStyle name="Header2 2 10 2" xfId="30"/>
-    <cellStyle name="Header2 2 11" xfId="31"/>
-    <cellStyle name="Header2 2 11 2" xfId="32"/>
-    <cellStyle name="Header2 2 12" xfId="33"/>
-    <cellStyle name="Header2 2 12 2" xfId="34"/>
-    <cellStyle name="Header2 2 13" xfId="35"/>
-    <cellStyle name="Header2 2 2" xfId="36"/>
-    <cellStyle name="Header2 2 2 2" xfId="37"/>
-    <cellStyle name="Header2 2 2 2 2" xfId="38"/>
-    <cellStyle name="Header2 2 2 3" xfId="39"/>
-    <cellStyle name="Header2 2 2 3 2" xfId="40"/>
-    <cellStyle name="Header2 2 2 4" xfId="41"/>
-    <cellStyle name="Header2 2 2 4 2" xfId="42"/>
-    <cellStyle name="Header2 2 2 5" xfId="43"/>
-    <cellStyle name="Header2 2 2 5 2" xfId="44"/>
-    <cellStyle name="Header2 2 2 6" xfId="45"/>
-    <cellStyle name="Header2 2 2 6 2" xfId="46"/>
-    <cellStyle name="Header2 2 2 7" xfId="47"/>
-    <cellStyle name="Header2 2 3" xfId="48"/>
-    <cellStyle name="Header2 2 4" xfId="49"/>
-    <cellStyle name="Header2 2 4 2" xfId="50"/>
-    <cellStyle name="Header2 2 4 2 2" xfId="51"/>
-    <cellStyle name="Header2 2 4 3" xfId="52"/>
-    <cellStyle name="Header2 2 4 3 2" xfId="53"/>
-    <cellStyle name="Header2 2 4 4" xfId="54"/>
-    <cellStyle name="Header2 2 4 4 2" xfId="55"/>
-    <cellStyle name="Header2 2 4 5" xfId="56"/>
-    <cellStyle name="Header2 2 4 5 2" xfId="57"/>
-    <cellStyle name="Header2 2 4 6" xfId="58"/>
-    <cellStyle name="Header2 2 4 6 2" xfId="59"/>
-    <cellStyle name="Header2 2 4 7" xfId="60"/>
-    <cellStyle name="Header2 2 5" xfId="61"/>
-    <cellStyle name="Header2 2 5 2" xfId="62"/>
-    <cellStyle name="Header2 2 5 2 2" xfId="63"/>
-    <cellStyle name="Header2 2 5 3" xfId="64"/>
-    <cellStyle name="Header2 2 5 3 2" xfId="65"/>
-    <cellStyle name="Header2 2 5 4" xfId="66"/>
-    <cellStyle name="Header2 2 5 4 2" xfId="67"/>
-    <cellStyle name="Header2 2 5 5" xfId="68"/>
-    <cellStyle name="Header2 2 5 5 2" xfId="69"/>
-    <cellStyle name="Header2 2 5 6" xfId="70"/>
-    <cellStyle name="Header2 2 5 6 2" xfId="71"/>
-    <cellStyle name="Header2 2 5 7" xfId="72"/>
-    <cellStyle name="Header2 2 6" xfId="73"/>
-    <cellStyle name="Header2 2 6 2" xfId="74"/>
-    <cellStyle name="Header2 2 6 2 2" xfId="75"/>
-    <cellStyle name="Header2 2 6 3" xfId="76"/>
-    <cellStyle name="Header2 2 6 3 2" xfId="77"/>
-    <cellStyle name="Header2 2 6 4" xfId="78"/>
-    <cellStyle name="Header2 2 6 4 2" xfId="79"/>
-    <cellStyle name="Header2 2 6 5" xfId="80"/>
-    <cellStyle name="Header2 2 6 5 2" xfId="81"/>
-    <cellStyle name="Header2 2 6 6" xfId="82"/>
-    <cellStyle name="Header2 2 6 6 2" xfId="83"/>
-    <cellStyle name="Header2 2 6 7" xfId="84"/>
-    <cellStyle name="Header2 2 7" xfId="85"/>
-    <cellStyle name="Header2 2 7 2" xfId="86"/>
-    <cellStyle name="Header2 2 7 2 2" xfId="87"/>
-    <cellStyle name="Header2 2 7 3" xfId="88"/>
-    <cellStyle name="Header2 2 7 3 2" xfId="89"/>
-    <cellStyle name="Header2 2 7 4" xfId="90"/>
-    <cellStyle name="Header2 2 7 4 2" xfId="91"/>
-    <cellStyle name="Header2 2 7 5" xfId="92"/>
-    <cellStyle name="Header2 2 7 5 2" xfId="93"/>
-    <cellStyle name="Header2 2 7 6" xfId="94"/>
-    <cellStyle name="Header2 2 7 6 2" xfId="95"/>
-    <cellStyle name="Header2 2 7 7" xfId="96"/>
-    <cellStyle name="Header2 2 8" xfId="97"/>
-    <cellStyle name="Header2 2 8 2" xfId="98"/>
-    <cellStyle name="Header2 2 9" xfId="99"/>
-    <cellStyle name="Header2 2 9 2" xfId="100"/>
-    <cellStyle name="Header2 3" xfId="101"/>
-    <cellStyle name="Header2 3 10" xfId="102"/>
-    <cellStyle name="Header2 3 10 2" xfId="103"/>
-    <cellStyle name="Header2 3 11" xfId="104"/>
-    <cellStyle name="Header2 3 11 2" xfId="105"/>
-    <cellStyle name="Header2 3 12" xfId="106"/>
-    <cellStyle name="Header2 3 2" xfId="107"/>
-    <cellStyle name="Header2 3 2 2" xfId="108"/>
-    <cellStyle name="Header2 3 2 2 2" xfId="109"/>
-    <cellStyle name="Header2 3 2 3" xfId="110"/>
-    <cellStyle name="Header2 3 2 3 2" xfId="111"/>
-    <cellStyle name="Header2 3 2 4" xfId="112"/>
-    <cellStyle name="Header2 3 2 4 2" xfId="113"/>
-    <cellStyle name="Header2 3 2 5" xfId="114"/>
-    <cellStyle name="Header2 3 2 5 2" xfId="115"/>
-    <cellStyle name="Header2 3 2 6" xfId="116"/>
-    <cellStyle name="Header2 3 2 6 2" xfId="117"/>
-    <cellStyle name="Header2 3 2 7" xfId="118"/>
-    <cellStyle name="Header2 3 3" xfId="119"/>
-    <cellStyle name="Header2 3 3 2" xfId="120"/>
-    <cellStyle name="Header2 3 3 2 2" xfId="121"/>
-    <cellStyle name="Header2 3 3 3" xfId="122"/>
-    <cellStyle name="Header2 3 3 3 2" xfId="123"/>
-    <cellStyle name="Header2 3 3 4" xfId="124"/>
-    <cellStyle name="Header2 3 3 4 2" xfId="125"/>
-    <cellStyle name="Header2 3 3 5" xfId="126"/>
-    <cellStyle name="Header2 3 3 5 2" xfId="127"/>
-    <cellStyle name="Header2 3 3 6" xfId="128"/>
-    <cellStyle name="Header2 3 3 6 2" xfId="129"/>
-    <cellStyle name="Header2 3 3 7" xfId="130"/>
-    <cellStyle name="Header2 3 4" xfId="131"/>
-    <cellStyle name="Header2 3 4 2" xfId="132"/>
-    <cellStyle name="Header2 3 4 2 2" xfId="133"/>
-    <cellStyle name="Header2 3 4 3" xfId="134"/>
-    <cellStyle name="Header2 3 4 3 2" xfId="135"/>
-    <cellStyle name="Header2 3 4 4" xfId="136"/>
-    <cellStyle name="Header2 3 4 4 2" xfId="137"/>
-    <cellStyle name="Header2 3 4 5" xfId="138"/>
-    <cellStyle name="Header2 3 4 5 2" xfId="139"/>
-    <cellStyle name="Header2 3 4 6" xfId="140"/>
-    <cellStyle name="Header2 3 4 6 2" xfId="141"/>
-    <cellStyle name="Header2 3 4 7" xfId="142"/>
-    <cellStyle name="Header2 3 5" xfId="143"/>
-    <cellStyle name="Header2 3 5 2" xfId="144"/>
-    <cellStyle name="Header2 3 5 2 2" xfId="145"/>
-    <cellStyle name="Header2 3 5 3" xfId="146"/>
-    <cellStyle name="Header2 3 5 3 2" xfId="147"/>
-    <cellStyle name="Header2 3 5 4" xfId="148"/>
-    <cellStyle name="Header2 3 5 4 2" xfId="149"/>
-    <cellStyle name="Header2 3 5 5" xfId="150"/>
-    <cellStyle name="Header2 3 5 5 2" xfId="151"/>
-    <cellStyle name="Header2 3 5 6" xfId="152"/>
-    <cellStyle name="Header2 3 5 6 2" xfId="153"/>
-    <cellStyle name="Header2 3 5 7" xfId="154"/>
-    <cellStyle name="Header2 3 6" xfId="155"/>
-    <cellStyle name="Header2 3 6 2" xfId="156"/>
-    <cellStyle name="Header2 3 6 2 2" xfId="157"/>
-    <cellStyle name="Header2 3 6 3" xfId="158"/>
-    <cellStyle name="Header2 3 6 3 2" xfId="159"/>
-    <cellStyle name="Header2 3 6 4" xfId="160"/>
-    <cellStyle name="Header2 3 6 4 2" xfId="161"/>
-    <cellStyle name="Header2 3 6 5" xfId="162"/>
-    <cellStyle name="Header2 3 6 5 2" xfId="163"/>
-    <cellStyle name="Header2 3 6 6" xfId="164"/>
-    <cellStyle name="Header2 3 6 6 2" xfId="165"/>
-    <cellStyle name="Header2 3 6 7" xfId="166"/>
-    <cellStyle name="Header2 3 7" xfId="167"/>
-    <cellStyle name="Header2 3 7 2" xfId="168"/>
-    <cellStyle name="Header2 3 8" xfId="169"/>
-    <cellStyle name="Header2 3 8 2" xfId="170"/>
-    <cellStyle name="Header2 3 9" xfId="171"/>
-    <cellStyle name="Header2 3 9 2" xfId="172"/>
-    <cellStyle name="Normal_#18-Internet" xfId="173"/>
-    <cellStyle name="アクセント 1 2" xfId="174"/>
-    <cellStyle name="アクセント 2 2" xfId="175"/>
-    <cellStyle name="アクセント 3 2" xfId="176"/>
-    <cellStyle name="アクセント 4 2" xfId="177"/>
-    <cellStyle name="アクセント 5 2" xfId="178"/>
-    <cellStyle name="アクセント 6 2" xfId="179"/>
-    <cellStyle name="タイトル 2" xfId="180"/>
-    <cellStyle name="チェック セル 2" xfId="181"/>
-    <cellStyle name="どちらでもない 2" xfId="182"/>
-    <cellStyle name="パーセント 2" xfId="183"/>
-    <cellStyle name="ハイパーリンク 2" xfId="6"/>
-    <cellStyle name="メモ 2" xfId="184"/>
-    <cellStyle name="メモ 2 2" xfId="185"/>
-    <cellStyle name="メモ 2 2 2" xfId="186"/>
-    <cellStyle name="メモ 2 2 2 2" xfId="187"/>
-    <cellStyle name="メモ 2 2 2 2 2" xfId="188"/>
-    <cellStyle name="メモ 2 2 2 3" xfId="189"/>
-    <cellStyle name="メモ 2 2 2 3 2" xfId="190"/>
-    <cellStyle name="メモ 2 2 2 4" xfId="191"/>
-    <cellStyle name="メモ 2 2 2 4 2" xfId="192"/>
-    <cellStyle name="メモ 2 2 2 5" xfId="193"/>
-    <cellStyle name="メモ 2 2 2 5 2" xfId="194"/>
-    <cellStyle name="メモ 2 2 2 6" xfId="195"/>
-    <cellStyle name="メモ 2 2 2 6 2" xfId="196"/>
-    <cellStyle name="メモ 2 2 2 7" xfId="197"/>
-    <cellStyle name="メモ 2 2 3" xfId="198"/>
-    <cellStyle name="メモ 2 2 3 2" xfId="199"/>
-    <cellStyle name="メモ 2 2 3 2 2" xfId="200"/>
-    <cellStyle name="メモ 2 2 3 3" xfId="201"/>
-    <cellStyle name="メモ 2 2 3 3 2" xfId="202"/>
-    <cellStyle name="メモ 2 2 3 4" xfId="203"/>
-    <cellStyle name="メモ 2 2 3 4 2" xfId="204"/>
-    <cellStyle name="メモ 2 2 3 5" xfId="205"/>
-    <cellStyle name="メモ 2 2 3 5 2" xfId="206"/>
-    <cellStyle name="メモ 2 2 3 6" xfId="207"/>
-    <cellStyle name="メモ 2 2 3 6 2" xfId="208"/>
-    <cellStyle name="メモ 2 2 3 7" xfId="209"/>
-    <cellStyle name="メモ 2 2 4" xfId="210"/>
-    <cellStyle name="メモ 2 2 4 2" xfId="211"/>
-    <cellStyle name="メモ 2 2 4 2 2" xfId="212"/>
-    <cellStyle name="メモ 2 2 4 3" xfId="213"/>
-    <cellStyle name="メモ 2 2 4 3 2" xfId="214"/>
-    <cellStyle name="メモ 2 2 4 4" xfId="215"/>
-    <cellStyle name="メモ 2 2 4 4 2" xfId="216"/>
-    <cellStyle name="メモ 2 2 4 5" xfId="217"/>
-    <cellStyle name="メモ 2 2 4 5 2" xfId="218"/>
-    <cellStyle name="メモ 2 2 4 6" xfId="219"/>
-    <cellStyle name="メモ 2 2 4 6 2" xfId="220"/>
-    <cellStyle name="メモ 2 2 4 7" xfId="221"/>
-    <cellStyle name="メモ 2 2 5" xfId="222"/>
-    <cellStyle name="メモ 2 2 5 2" xfId="223"/>
-    <cellStyle name="メモ 2 2 5 2 2" xfId="224"/>
-    <cellStyle name="メモ 2 2 5 3" xfId="225"/>
-    <cellStyle name="メモ 2 2 5 3 2" xfId="226"/>
-    <cellStyle name="メモ 2 2 5 4" xfId="227"/>
-    <cellStyle name="メモ 2 2 5 4 2" xfId="228"/>
-    <cellStyle name="メモ 2 2 5 5" xfId="229"/>
-    <cellStyle name="メモ 2 2 5 5 2" xfId="230"/>
-    <cellStyle name="メモ 2 2 5 6" xfId="231"/>
-    <cellStyle name="メモ 2 2 5 6 2" xfId="232"/>
-    <cellStyle name="メモ 2 2 5 7" xfId="233"/>
-    <cellStyle name="メモ 2 2 6" xfId="234"/>
-    <cellStyle name="メモ 2 2 6 2" xfId="235"/>
-    <cellStyle name="メモ 2 2 6 2 2" xfId="236"/>
-    <cellStyle name="メモ 2 2 6 3" xfId="237"/>
-    <cellStyle name="メモ 2 2 6 3 2" xfId="238"/>
-    <cellStyle name="メモ 2 2 6 4" xfId="239"/>
-    <cellStyle name="メモ 2 2 6 4 2" xfId="240"/>
-    <cellStyle name="メモ 2 2 6 5" xfId="241"/>
-    <cellStyle name="メモ 2 2 6 5 2" xfId="242"/>
-    <cellStyle name="メモ 2 2 6 6" xfId="243"/>
-    <cellStyle name="メモ 2 2 7" xfId="244"/>
-    <cellStyle name="メモ 2 2 7 2" xfId="245"/>
-    <cellStyle name="メモ 2 2 8" xfId="246"/>
-    <cellStyle name="メモ 2 3" xfId="247"/>
-    <cellStyle name="リンク セル 2" xfId="248"/>
-    <cellStyle name="悪い 2" xfId="249"/>
-    <cellStyle name="計算 2" xfId="250"/>
-    <cellStyle name="計算 2 2" xfId="251"/>
-    <cellStyle name="計算 2 2 2" xfId="252"/>
-    <cellStyle name="計算 2 2 2 2" xfId="253"/>
-    <cellStyle name="計算 2 2 2 2 2" xfId="254"/>
-    <cellStyle name="計算 2 2 2 3" xfId="255"/>
-    <cellStyle name="計算 2 2 2 3 2" xfId="256"/>
-    <cellStyle name="計算 2 2 2 4" xfId="257"/>
-    <cellStyle name="計算 2 2 2 4 2" xfId="258"/>
-    <cellStyle name="計算 2 2 2 5" xfId="259"/>
-    <cellStyle name="計算 2 2 2 5 2" xfId="260"/>
-    <cellStyle name="計算 2 2 2 6" xfId="261"/>
-    <cellStyle name="計算 2 2 2 6 2" xfId="262"/>
-    <cellStyle name="計算 2 2 2 7" xfId="263"/>
-    <cellStyle name="計算 2 2 3" xfId="264"/>
-    <cellStyle name="計算 2 2 3 2" xfId="265"/>
-    <cellStyle name="計算 2 2 3 2 2" xfId="266"/>
-    <cellStyle name="計算 2 2 3 3" xfId="267"/>
-    <cellStyle name="計算 2 2 3 3 2" xfId="268"/>
-    <cellStyle name="計算 2 2 3 4" xfId="269"/>
-    <cellStyle name="計算 2 2 3 4 2" xfId="270"/>
-    <cellStyle name="計算 2 2 3 5" xfId="271"/>
-    <cellStyle name="計算 2 2 3 5 2" xfId="272"/>
-    <cellStyle name="計算 2 2 3 6" xfId="273"/>
-    <cellStyle name="計算 2 2 3 6 2" xfId="274"/>
-    <cellStyle name="計算 2 2 3 7" xfId="275"/>
-    <cellStyle name="計算 2 2 4" xfId="276"/>
-    <cellStyle name="計算 2 2 4 2" xfId="277"/>
-    <cellStyle name="計算 2 2 4 2 2" xfId="278"/>
-    <cellStyle name="計算 2 2 4 3" xfId="279"/>
-    <cellStyle name="計算 2 2 4 3 2" xfId="280"/>
-    <cellStyle name="計算 2 2 4 4" xfId="281"/>
-    <cellStyle name="計算 2 2 4 4 2" xfId="282"/>
-    <cellStyle name="計算 2 2 4 5" xfId="283"/>
-    <cellStyle name="計算 2 2 4 5 2" xfId="284"/>
-    <cellStyle name="計算 2 2 4 6" xfId="285"/>
-    <cellStyle name="計算 2 2 4 6 2" xfId="286"/>
-    <cellStyle name="計算 2 2 4 7" xfId="287"/>
-    <cellStyle name="計算 2 2 5" xfId="288"/>
-    <cellStyle name="計算 2 2 5 2" xfId="289"/>
-    <cellStyle name="計算 2 2 5 2 2" xfId="290"/>
-    <cellStyle name="計算 2 2 5 3" xfId="291"/>
-    <cellStyle name="計算 2 2 5 3 2" xfId="292"/>
-    <cellStyle name="計算 2 2 5 4" xfId="293"/>
-    <cellStyle name="計算 2 2 5 4 2" xfId="294"/>
-    <cellStyle name="計算 2 2 5 5" xfId="295"/>
-    <cellStyle name="計算 2 2 5 5 2" xfId="296"/>
-    <cellStyle name="計算 2 2 5 6" xfId="297"/>
-    <cellStyle name="計算 2 2 5 6 2" xfId="298"/>
-    <cellStyle name="計算 2 2 5 7" xfId="299"/>
-    <cellStyle name="計算 2 2 6" xfId="300"/>
-    <cellStyle name="計算 2 2 6 2" xfId="301"/>
-    <cellStyle name="計算 2 2 6 2 2" xfId="302"/>
-    <cellStyle name="計算 2 2 6 3" xfId="303"/>
-    <cellStyle name="計算 2 2 6 3 2" xfId="304"/>
-    <cellStyle name="計算 2 2 6 4" xfId="305"/>
-    <cellStyle name="計算 2 2 6 4 2" xfId="306"/>
-    <cellStyle name="計算 2 2 6 5" xfId="307"/>
-    <cellStyle name="計算 2 2 6 5 2" xfId="308"/>
-    <cellStyle name="計算 2 2 6 6" xfId="309"/>
-    <cellStyle name="計算 2 2 7" xfId="310"/>
-    <cellStyle name="計算 2 2 7 2" xfId="311"/>
-    <cellStyle name="計算 2 2 8" xfId="312"/>
-    <cellStyle name="計算 2 3" xfId="313"/>
-    <cellStyle name="警告文 2" xfId="314"/>
-    <cellStyle name="見出し 1 2" xfId="315"/>
-    <cellStyle name="見出し 2 2" xfId="316"/>
-    <cellStyle name="見出し 3 2" xfId="317"/>
-    <cellStyle name="見出し 4 2" xfId="318"/>
-    <cellStyle name="集計 2" xfId="319"/>
-    <cellStyle name="集計 2 2" xfId="320"/>
-    <cellStyle name="集計 2 2 2" xfId="321"/>
-    <cellStyle name="集計 2 2 2 2" xfId="322"/>
-    <cellStyle name="集計 2 2 2 2 2" xfId="323"/>
-    <cellStyle name="集計 2 2 2 3" xfId="324"/>
-    <cellStyle name="集計 2 2 2 3 2" xfId="325"/>
-    <cellStyle name="集計 2 2 2 4" xfId="326"/>
-    <cellStyle name="集計 2 2 2 4 2" xfId="327"/>
-    <cellStyle name="集計 2 2 2 5" xfId="328"/>
-    <cellStyle name="集計 2 2 2 5 2" xfId="329"/>
-    <cellStyle name="集計 2 2 2 6" xfId="330"/>
-    <cellStyle name="集計 2 2 2 6 2" xfId="331"/>
-    <cellStyle name="集計 2 2 2 7" xfId="332"/>
-    <cellStyle name="集計 2 2 3" xfId="333"/>
-    <cellStyle name="集計 2 2 3 2" xfId="334"/>
-    <cellStyle name="集計 2 2 3 2 2" xfId="335"/>
-    <cellStyle name="集計 2 2 3 3" xfId="336"/>
-    <cellStyle name="集計 2 2 3 3 2" xfId="337"/>
-    <cellStyle name="集計 2 2 3 4" xfId="338"/>
-    <cellStyle name="集計 2 2 3 4 2" xfId="339"/>
-    <cellStyle name="集計 2 2 3 5" xfId="340"/>
-    <cellStyle name="集計 2 2 3 5 2" xfId="341"/>
-    <cellStyle name="集計 2 2 3 6" xfId="342"/>
-    <cellStyle name="集計 2 2 3 6 2" xfId="343"/>
-    <cellStyle name="集計 2 2 3 7" xfId="344"/>
-    <cellStyle name="集計 2 2 4" xfId="345"/>
-    <cellStyle name="集計 2 2 4 2" xfId="346"/>
-    <cellStyle name="集計 2 2 4 2 2" xfId="347"/>
-    <cellStyle name="集計 2 2 4 3" xfId="348"/>
-    <cellStyle name="集計 2 2 4 3 2" xfId="349"/>
-    <cellStyle name="集計 2 2 4 4" xfId="350"/>
-    <cellStyle name="集計 2 2 4 4 2" xfId="351"/>
-    <cellStyle name="集計 2 2 4 5" xfId="352"/>
-    <cellStyle name="集計 2 2 4 5 2" xfId="353"/>
-    <cellStyle name="集計 2 2 4 6" xfId="354"/>
-    <cellStyle name="集計 2 2 4 6 2" xfId="355"/>
-    <cellStyle name="集計 2 2 4 7" xfId="356"/>
-    <cellStyle name="集計 2 2 5" xfId="357"/>
-    <cellStyle name="集計 2 2 5 2" xfId="358"/>
-    <cellStyle name="集計 2 2 5 2 2" xfId="359"/>
-    <cellStyle name="集計 2 2 5 3" xfId="360"/>
-    <cellStyle name="集計 2 2 5 3 2" xfId="361"/>
-    <cellStyle name="集計 2 2 5 4" xfId="362"/>
-    <cellStyle name="集計 2 2 5 4 2" xfId="363"/>
-    <cellStyle name="集計 2 2 5 5" xfId="364"/>
-    <cellStyle name="集計 2 2 5 5 2" xfId="365"/>
-    <cellStyle name="集計 2 2 5 6" xfId="366"/>
-    <cellStyle name="集計 2 2 6" xfId="367"/>
-    <cellStyle name="集計 2 2 6 2" xfId="368"/>
-    <cellStyle name="集計 2 2 6 2 2" xfId="369"/>
-    <cellStyle name="集計 2 2 6 3" xfId="370"/>
-    <cellStyle name="集計 2 2 6 3 2" xfId="371"/>
-    <cellStyle name="集計 2 2 6 4" xfId="372"/>
-    <cellStyle name="集計 2 2 6 4 2" xfId="373"/>
-    <cellStyle name="集計 2 2 6 5" xfId="374"/>
-    <cellStyle name="集計 2 2 6 5 2" xfId="375"/>
-    <cellStyle name="集計 2 2 6 6" xfId="376"/>
-    <cellStyle name="集計 2 2 6 6 2" xfId="377"/>
-    <cellStyle name="集計 2 2 6 7" xfId="378"/>
-    <cellStyle name="集計 2 2 7" xfId="379"/>
-    <cellStyle name="集計 2 2 7 2" xfId="380"/>
-    <cellStyle name="集計 2 2 8" xfId="381"/>
-    <cellStyle name="集計 2 3" xfId="382"/>
-    <cellStyle name="出力 2" xfId="383"/>
-    <cellStyle name="出力 2 2" xfId="384"/>
-    <cellStyle name="出力 2 2 2" xfId="385"/>
-    <cellStyle name="出力 2 2 2 2" xfId="386"/>
-    <cellStyle name="出力 2 2 2 2 2" xfId="387"/>
-    <cellStyle name="出力 2 2 2 3" xfId="388"/>
-    <cellStyle name="出力 2 2 2 3 2" xfId="389"/>
-    <cellStyle name="出力 2 2 2 4" xfId="390"/>
-    <cellStyle name="出力 2 2 2 4 2" xfId="391"/>
-    <cellStyle name="出力 2 2 2 5" xfId="392"/>
-    <cellStyle name="出力 2 2 2 5 2" xfId="393"/>
-    <cellStyle name="出力 2 2 2 6" xfId="394"/>
-    <cellStyle name="出力 2 2 2 6 2" xfId="395"/>
-    <cellStyle name="出力 2 2 2 7" xfId="396"/>
-    <cellStyle name="出力 2 2 3" xfId="397"/>
-    <cellStyle name="出力 2 2 3 2" xfId="398"/>
-    <cellStyle name="出力 2 2 3 2 2" xfId="399"/>
-    <cellStyle name="出力 2 2 3 3" xfId="400"/>
-    <cellStyle name="出力 2 2 3 3 2" xfId="401"/>
-    <cellStyle name="出力 2 2 3 4" xfId="402"/>
-    <cellStyle name="出力 2 2 3 4 2" xfId="403"/>
-    <cellStyle name="出力 2 2 3 5" xfId="404"/>
-    <cellStyle name="出力 2 2 3 5 2" xfId="405"/>
-    <cellStyle name="出力 2 2 3 6" xfId="406"/>
-    <cellStyle name="出力 2 2 3 6 2" xfId="407"/>
-    <cellStyle name="出力 2 2 3 7" xfId="408"/>
-    <cellStyle name="出力 2 2 4" xfId="409"/>
-    <cellStyle name="出力 2 2 4 2" xfId="410"/>
-    <cellStyle name="出力 2 2 4 2 2" xfId="411"/>
-    <cellStyle name="出力 2 2 4 3" xfId="412"/>
-    <cellStyle name="出力 2 2 4 3 2" xfId="413"/>
-    <cellStyle name="出力 2 2 4 4" xfId="414"/>
-    <cellStyle name="出力 2 2 4 4 2" xfId="415"/>
-    <cellStyle name="出力 2 2 4 5" xfId="416"/>
-    <cellStyle name="出力 2 2 4 5 2" xfId="417"/>
-    <cellStyle name="出力 2 2 4 6" xfId="418"/>
-    <cellStyle name="出力 2 2 4 6 2" xfId="419"/>
-    <cellStyle name="出力 2 2 4 7" xfId="420"/>
-    <cellStyle name="出力 2 2 5" xfId="421"/>
-    <cellStyle name="出力 2 2 5 2" xfId="422"/>
-    <cellStyle name="出力 2 2 5 2 2" xfId="423"/>
-    <cellStyle name="出力 2 2 5 3" xfId="424"/>
-    <cellStyle name="出力 2 2 5 3 2" xfId="425"/>
-    <cellStyle name="出力 2 2 5 4" xfId="426"/>
-    <cellStyle name="出力 2 2 5 4 2" xfId="427"/>
-    <cellStyle name="出力 2 2 5 5" xfId="428"/>
-    <cellStyle name="出力 2 2 5 5 2" xfId="429"/>
-    <cellStyle name="出力 2 2 5 6" xfId="430"/>
-    <cellStyle name="出力 2 2 6" xfId="431"/>
-    <cellStyle name="出力 2 2 6 2" xfId="432"/>
-    <cellStyle name="出力 2 2 6 2 2" xfId="433"/>
-    <cellStyle name="出力 2 2 6 3" xfId="434"/>
-    <cellStyle name="出力 2 2 6 3 2" xfId="435"/>
-    <cellStyle name="出力 2 2 6 4" xfId="436"/>
-    <cellStyle name="出力 2 2 6 4 2" xfId="437"/>
-    <cellStyle name="出力 2 2 6 5" xfId="438"/>
-    <cellStyle name="出力 2 2 6 5 2" xfId="439"/>
-    <cellStyle name="出力 2 2 6 6" xfId="440"/>
-    <cellStyle name="出力 2 2 6 6 2" xfId="441"/>
-    <cellStyle name="出力 2 2 6 7" xfId="442"/>
-    <cellStyle name="出力 2 2 7" xfId="443"/>
-    <cellStyle name="出力 2 2 7 2" xfId="444"/>
-    <cellStyle name="出力 2 2 8" xfId="445"/>
-    <cellStyle name="出力 2 3" xfId="446"/>
-    <cellStyle name="説明文 2" xfId="447"/>
-    <cellStyle name="入力 2" xfId="448"/>
-    <cellStyle name="入力 2 2" xfId="449"/>
-    <cellStyle name="入力 2 2 2" xfId="450"/>
-    <cellStyle name="入力 2 2 2 2" xfId="451"/>
-    <cellStyle name="入力 2 2 2 2 2" xfId="452"/>
-    <cellStyle name="入力 2 2 2 3" xfId="453"/>
-    <cellStyle name="入力 2 2 2 3 2" xfId="454"/>
-    <cellStyle name="入力 2 2 2 4" xfId="455"/>
-    <cellStyle name="入力 2 2 2 4 2" xfId="456"/>
-    <cellStyle name="入力 2 2 2 5" xfId="457"/>
-    <cellStyle name="入力 2 2 2 5 2" xfId="458"/>
-    <cellStyle name="入力 2 2 2 6" xfId="459"/>
-    <cellStyle name="入力 2 2 2 6 2" xfId="460"/>
-    <cellStyle name="入力 2 2 2 7" xfId="461"/>
-    <cellStyle name="入力 2 2 3" xfId="462"/>
-    <cellStyle name="入力 2 2 3 2" xfId="463"/>
-    <cellStyle name="入力 2 2 3 2 2" xfId="464"/>
-    <cellStyle name="入力 2 2 3 3" xfId="465"/>
-    <cellStyle name="入力 2 2 3 3 2" xfId="466"/>
-    <cellStyle name="入力 2 2 3 4" xfId="467"/>
-    <cellStyle name="入力 2 2 3 4 2" xfId="468"/>
-    <cellStyle name="入力 2 2 3 5" xfId="469"/>
-    <cellStyle name="入力 2 2 3 5 2" xfId="470"/>
-    <cellStyle name="入力 2 2 3 6" xfId="471"/>
-    <cellStyle name="入力 2 2 3 6 2" xfId="472"/>
-    <cellStyle name="入力 2 2 3 7" xfId="473"/>
-    <cellStyle name="入力 2 2 4" xfId="474"/>
-    <cellStyle name="入力 2 2 4 2" xfId="475"/>
-    <cellStyle name="入力 2 2 4 2 2" xfId="476"/>
-    <cellStyle name="入力 2 2 4 3" xfId="477"/>
-    <cellStyle name="入力 2 2 4 3 2" xfId="478"/>
-    <cellStyle name="入力 2 2 4 4" xfId="479"/>
-    <cellStyle name="入力 2 2 4 4 2" xfId="480"/>
-    <cellStyle name="入力 2 2 4 5" xfId="481"/>
-    <cellStyle name="入力 2 2 4 5 2" xfId="482"/>
-    <cellStyle name="入力 2 2 4 6" xfId="483"/>
-    <cellStyle name="入力 2 2 4 6 2" xfId="484"/>
-    <cellStyle name="入力 2 2 4 7" xfId="485"/>
-    <cellStyle name="入力 2 2 5" xfId="486"/>
-    <cellStyle name="入力 2 2 5 2" xfId="487"/>
-    <cellStyle name="入力 2 2 5 2 2" xfId="488"/>
-    <cellStyle name="入力 2 2 5 3" xfId="489"/>
-    <cellStyle name="入力 2 2 5 3 2" xfId="490"/>
-    <cellStyle name="入力 2 2 5 4" xfId="491"/>
-    <cellStyle name="入力 2 2 5 4 2" xfId="492"/>
-    <cellStyle name="入力 2 2 5 5" xfId="493"/>
-    <cellStyle name="入力 2 2 5 5 2" xfId="494"/>
-    <cellStyle name="入力 2 2 5 6" xfId="495"/>
-    <cellStyle name="入力 2 2 5 6 2" xfId="496"/>
-    <cellStyle name="入力 2 2 5 7" xfId="497"/>
-    <cellStyle name="入力 2 2 6" xfId="498"/>
-    <cellStyle name="入力 2 2 6 2" xfId="499"/>
-    <cellStyle name="入力 2 2 6 2 2" xfId="500"/>
-    <cellStyle name="入力 2 2 6 3" xfId="501"/>
-    <cellStyle name="入力 2 2 6 3 2" xfId="502"/>
-    <cellStyle name="入力 2 2 6 4" xfId="503"/>
-    <cellStyle name="入力 2 2 6 4 2" xfId="504"/>
-    <cellStyle name="入力 2 2 6 5" xfId="505"/>
-    <cellStyle name="入力 2 2 6 5 2" xfId="506"/>
-    <cellStyle name="入力 2 2 6 6" xfId="507"/>
-    <cellStyle name="入力 2 2 7" xfId="508"/>
-    <cellStyle name="入力 2 2 7 2" xfId="509"/>
-    <cellStyle name="入力 2 2 8" xfId="510"/>
-    <cellStyle name="入力 2 3" xfId="511"/>
+    <cellStyle name="20% - アクセント 1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - アクセント 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - アクセント 3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - アクセント 4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - アクセント 5 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - アクセント 6 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - アクセント 1 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - アクセント 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - アクセント 3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - アクセント 4 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - アクセント 5 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - アクセント 6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - アクセント 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - アクセント 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - アクセント 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - アクセント 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - アクセント 5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - アクセント 6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Calc Currency (0)" xfId="25" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Header1" xfId="26" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Header2" xfId="27" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Header2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Header2 2 10" xfId="29" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Header2 2 10 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Header2 2 11" xfId="31" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Header2 2 11 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Header2 2 12" xfId="33" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Header2 2 12 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Header2 2 13" xfId="35" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Header2 2 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Header2 2 2 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Header2 2 2 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Header2 2 2 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Header2 2 2 3 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Header2 2 2 4" xfId="41" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Header2 2 2 4 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Header2 2 2 5" xfId="43" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Header2 2 2 5 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Header2 2 2 6" xfId="45" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Header2 2 2 6 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Header2 2 2 7" xfId="47" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Header2 2 3" xfId="48" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Header2 2 4" xfId="49" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Header2 2 4 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Header2 2 4 2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Header2 2 4 3" xfId="52" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Header2 2 4 3 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Header2 2 4 4" xfId="54" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Header2 2 4 4 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Header2 2 4 5" xfId="56" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Header2 2 4 5 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Header2 2 4 6" xfId="58" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Header2 2 4 6 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Header2 2 4 7" xfId="60" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Header2 2 5" xfId="61" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Header2 2 5 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Header2 2 5 2 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Header2 2 5 3" xfId="64" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Header2 2 5 3 2" xfId="65" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Header2 2 5 4" xfId="66" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Header2 2 5 4 2" xfId="67" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Header2 2 5 5" xfId="68" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Header2 2 5 5 2" xfId="69" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Header2 2 5 6" xfId="70" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Header2 2 5 6 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Header2 2 5 7" xfId="72" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Header2 2 6" xfId="73" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Header2 2 6 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Header2 2 6 2 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Header2 2 6 3" xfId="76" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Header2 2 6 3 2" xfId="77" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Header2 2 6 4" xfId="78" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Header2 2 6 4 2" xfId="79" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Header2 2 6 5" xfId="80" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Header2 2 6 5 2" xfId="81" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Header2 2 6 6" xfId="82" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Header2 2 6 6 2" xfId="83" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Header2 2 6 7" xfId="84" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Header2 2 7" xfId="85" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Header2 2 7 2" xfId="86" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Header2 2 7 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Header2 2 7 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Header2 2 7 3 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Header2 2 7 4" xfId="90" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Header2 2 7 4 2" xfId="91" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Header2 2 7 5" xfId="92" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Header2 2 7 5 2" xfId="93" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Header2 2 7 6" xfId="94" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Header2 2 7 6 2" xfId="95" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Header2 2 7 7" xfId="96" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Header2 2 8" xfId="97" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Header2 2 8 2" xfId="98" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Header2 2 9" xfId="99" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Header2 2 9 2" xfId="100" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Header2 3" xfId="101" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Header2 3 10" xfId="102" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Header2 3 10 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Header2 3 11" xfId="104" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Header2 3 11 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Header2 3 12" xfId="106" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Header2 3 2" xfId="107" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Header2 3 2 2" xfId="108" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Header2 3 2 2 2" xfId="109" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Header2 3 2 3" xfId="110" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Header2 3 2 3 2" xfId="111" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Header2 3 2 4" xfId="112" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Header2 3 2 4 2" xfId="113" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Header2 3 2 5" xfId="114" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Header2 3 2 5 2" xfId="115" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Header2 3 2 6" xfId="116" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Header2 3 2 6 2" xfId="117" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Header2 3 2 7" xfId="118" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Header2 3 3" xfId="119" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Header2 3 3 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Header2 3 3 2 2" xfId="121" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Header2 3 3 3" xfId="122" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Header2 3 3 3 2" xfId="123" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Header2 3 3 4" xfId="124" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Header2 3 3 4 2" xfId="125" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Header2 3 3 5" xfId="126" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Header2 3 3 5 2" xfId="127" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Header2 3 3 6" xfId="128" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Header2 3 3 6 2" xfId="129" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Header2 3 3 7" xfId="130" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Header2 3 4" xfId="131" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Header2 3 4 2" xfId="132" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Header2 3 4 2 2" xfId="133" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Header2 3 4 3" xfId="134" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Header2 3 4 3 2" xfId="135" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Header2 3 4 4" xfId="136" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Header2 3 4 4 2" xfId="137" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Header2 3 4 5" xfId="138" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Header2 3 4 5 2" xfId="139" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Header2 3 4 6" xfId="140" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Header2 3 4 6 2" xfId="141" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Header2 3 4 7" xfId="142" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Header2 3 5" xfId="143" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Header2 3 5 2" xfId="144" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Header2 3 5 2 2" xfId="145" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Header2 3 5 3" xfId="146" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Header2 3 5 3 2" xfId="147" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Header2 3 5 4" xfId="148" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Header2 3 5 4 2" xfId="149" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Header2 3 5 5" xfId="150" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Header2 3 5 5 2" xfId="151" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Header2 3 5 6" xfId="152" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Header2 3 5 6 2" xfId="153" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Header2 3 5 7" xfId="154" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Header2 3 6" xfId="155" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Header2 3 6 2" xfId="156" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Header2 3 6 2 2" xfId="157" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Header2 3 6 3" xfId="158" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Header2 3 6 3 2" xfId="159" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Header2 3 6 4" xfId="160" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Header2 3 6 4 2" xfId="161" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Header2 3 6 5" xfId="162" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Header2 3 6 5 2" xfId="163" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="Header2 3 6 6" xfId="164" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="Header2 3 6 6 2" xfId="165" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="Header2 3 6 7" xfId="166" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Header2 3 7" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="Header2 3 7 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="Header2 3 8" xfId="169" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="Header2 3 8 2" xfId="170" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="Header2 3 9" xfId="171" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="Header2 3 9 2" xfId="172" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="Normal_#18-Internet" xfId="173" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="アクセント 1 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="アクセント 2 2" xfId="175" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="アクセント 3 2" xfId="176" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="アクセント 4 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="アクセント 5 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="アクセント 6 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="タイトル 2" xfId="180" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="チェック セル 2" xfId="181" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="どちらでもない 2" xfId="182" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="パーセント 2" xfId="183" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="ハイパーリンク 2" xfId="6" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="メモ 2" xfId="184" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="メモ 2 2" xfId="185" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="メモ 2 2 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="メモ 2 2 2 2" xfId="187" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="メモ 2 2 2 2 2" xfId="188" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="メモ 2 2 2 3" xfId="189" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="メモ 2 2 2 3 2" xfId="190" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="メモ 2 2 2 4" xfId="191" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="メモ 2 2 2 4 2" xfId="192" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="メモ 2 2 2 5" xfId="193" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="メモ 2 2 2 5 2" xfId="194" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="メモ 2 2 2 6" xfId="195" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="メモ 2 2 2 6 2" xfId="196" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="メモ 2 2 2 7" xfId="197" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="メモ 2 2 3" xfId="198" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="メモ 2 2 3 2" xfId="199" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="メモ 2 2 3 2 2" xfId="200" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="メモ 2 2 3 3" xfId="201" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="メモ 2 2 3 3 2" xfId="202" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="メモ 2 2 3 4" xfId="203" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="メモ 2 2 3 4 2" xfId="204" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="メモ 2 2 3 5" xfId="205" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="メモ 2 2 3 5 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="メモ 2 2 3 6" xfId="207" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="メモ 2 2 3 6 2" xfId="208" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="メモ 2 2 3 7" xfId="209" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="メモ 2 2 4" xfId="210" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="メモ 2 2 4 2" xfId="211" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="メモ 2 2 4 2 2" xfId="212" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="メモ 2 2 4 3" xfId="213" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="メモ 2 2 4 3 2" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="メモ 2 2 4 4" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="メモ 2 2 4 4 2" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="メモ 2 2 4 5" xfId="217" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="メモ 2 2 4 5 2" xfId="218" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="メモ 2 2 4 6" xfId="219" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="メモ 2 2 4 6 2" xfId="220" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="メモ 2 2 4 7" xfId="221" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="メモ 2 2 5" xfId="222" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="メモ 2 2 5 2" xfId="223" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="メモ 2 2 5 2 2" xfId="224" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="メモ 2 2 5 3" xfId="225" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="メモ 2 2 5 3 2" xfId="226" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="メモ 2 2 5 4" xfId="227" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="メモ 2 2 5 4 2" xfId="228" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="メモ 2 2 5 5" xfId="229" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="メモ 2 2 5 5 2" xfId="230" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="メモ 2 2 5 6" xfId="231" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="メモ 2 2 5 6 2" xfId="232" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="メモ 2 2 5 7" xfId="233" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="メモ 2 2 6" xfId="234" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="メモ 2 2 6 2" xfId="235" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="メモ 2 2 6 2 2" xfId="236" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="メモ 2 2 6 3" xfId="237" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="メモ 2 2 6 3 2" xfId="238" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="メモ 2 2 6 4" xfId="239" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="メモ 2 2 6 4 2" xfId="240" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="メモ 2 2 6 5" xfId="241" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="メモ 2 2 6 5 2" xfId="242" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="メモ 2 2 6 6" xfId="243" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="メモ 2 2 7" xfId="244" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="メモ 2 2 7 2" xfId="245" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="メモ 2 2 8" xfId="246" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="メモ 2 3" xfId="247" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="リンク セル 2" xfId="248" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="悪い 2" xfId="249" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="計算 2" xfId="250" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="計算 2 2" xfId="251" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="計算 2 2 2" xfId="252" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="計算 2 2 2 2" xfId="253" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="計算 2 2 2 2 2" xfId="254" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="計算 2 2 2 3" xfId="255" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="計算 2 2 2 3 2" xfId="256" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="計算 2 2 2 4" xfId="257" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="計算 2 2 2 4 2" xfId="258" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="計算 2 2 2 5" xfId="259" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="計算 2 2 2 5 2" xfId="260" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="計算 2 2 2 6" xfId="261" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="計算 2 2 2 6 2" xfId="262" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="計算 2 2 2 7" xfId="263" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="計算 2 2 3" xfId="264" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="計算 2 2 3 2" xfId="265" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="計算 2 2 3 2 2" xfId="266" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="計算 2 2 3 3" xfId="267" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="計算 2 2 3 3 2" xfId="268" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="計算 2 2 3 4" xfId="269" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="計算 2 2 3 4 2" xfId="270" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="計算 2 2 3 5" xfId="271" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="計算 2 2 3 5 2" xfId="272" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="計算 2 2 3 6" xfId="273" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="計算 2 2 3 6 2" xfId="274" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="計算 2 2 3 7" xfId="275" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="計算 2 2 4" xfId="276" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="計算 2 2 4 2" xfId="277" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="計算 2 2 4 2 2" xfId="278" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="計算 2 2 4 3" xfId="279" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="計算 2 2 4 3 2" xfId="280" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="計算 2 2 4 4" xfId="281" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="計算 2 2 4 4 2" xfId="282" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="計算 2 2 4 5" xfId="283" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="計算 2 2 4 5 2" xfId="284" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="計算 2 2 4 6" xfId="285" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="計算 2 2 4 6 2" xfId="286" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="計算 2 2 4 7" xfId="287" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="計算 2 2 5" xfId="288" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="計算 2 2 5 2" xfId="289" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="計算 2 2 5 2 2" xfId="290" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="計算 2 2 5 3" xfId="291" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="計算 2 2 5 3 2" xfId="292" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="計算 2 2 5 4" xfId="293" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="計算 2 2 5 4 2" xfId="294" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="計算 2 2 5 5" xfId="295" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="計算 2 2 5 5 2" xfId="296" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="計算 2 2 5 6" xfId="297" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="計算 2 2 5 6 2" xfId="298" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="計算 2 2 5 7" xfId="299" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="計算 2 2 6" xfId="300" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="計算 2 2 6 2" xfId="301" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="計算 2 2 6 2 2" xfId="302" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="計算 2 2 6 3" xfId="303" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="計算 2 2 6 3 2" xfId="304" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="計算 2 2 6 4" xfId="305" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="計算 2 2 6 4 2" xfId="306" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="計算 2 2 6 5" xfId="307" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="計算 2 2 6 5 2" xfId="308" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="計算 2 2 6 6" xfId="309" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="計算 2 2 7" xfId="310" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="計算 2 2 7 2" xfId="311" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="計算 2 2 8" xfId="312" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="計算 2 3" xfId="313" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="警告文 2" xfId="314" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="見出し 1 2" xfId="315" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="見出し 2 2" xfId="316" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="見出し 3 2" xfId="317" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="見出し 4 2" xfId="318" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="集計 2" xfId="319" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="集計 2 2" xfId="320" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="集計 2 2 2" xfId="321" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="集計 2 2 2 2" xfId="322" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="集計 2 2 2 2 2" xfId="323" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="集計 2 2 2 3" xfId="324" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="集計 2 2 2 3 2" xfId="325" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="集計 2 2 2 4" xfId="326" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="集計 2 2 2 4 2" xfId="327" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="集計 2 2 2 5" xfId="328" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="集計 2 2 2 5 2" xfId="329" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="集計 2 2 2 6" xfId="330" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="集計 2 2 2 6 2" xfId="331" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="集計 2 2 2 7" xfId="332" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="集計 2 2 3" xfId="333" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="集計 2 2 3 2" xfId="334" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="集計 2 2 3 2 2" xfId="335" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="集計 2 2 3 3" xfId="336" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="集計 2 2 3 3 2" xfId="337" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="集計 2 2 3 4" xfId="338" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="集計 2 2 3 4 2" xfId="339" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="集計 2 2 3 5" xfId="340" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="集計 2 2 3 5 2" xfId="341" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="集計 2 2 3 6" xfId="342" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="集計 2 2 3 6 2" xfId="343" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="集計 2 2 3 7" xfId="344" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="集計 2 2 4" xfId="345" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="集計 2 2 4 2" xfId="346" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="集計 2 2 4 2 2" xfId="347" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="集計 2 2 4 3" xfId="348" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="集計 2 2 4 3 2" xfId="349" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="集計 2 2 4 4" xfId="350" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="集計 2 2 4 4 2" xfId="351" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="集計 2 2 4 5" xfId="352" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="集計 2 2 4 5 2" xfId="353" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="集計 2 2 4 6" xfId="354" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="集計 2 2 4 6 2" xfId="355" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="集計 2 2 4 7" xfId="356" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="集計 2 2 5" xfId="357" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="集計 2 2 5 2" xfId="358" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="集計 2 2 5 2 2" xfId="359" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="集計 2 2 5 3" xfId="360" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="集計 2 2 5 3 2" xfId="361" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="集計 2 2 5 4" xfId="362" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="集計 2 2 5 4 2" xfId="363" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="集計 2 2 5 5" xfId="364" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="集計 2 2 5 5 2" xfId="365" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="集計 2 2 5 6" xfId="366" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="集計 2 2 6" xfId="367" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
+    <cellStyle name="集計 2 2 6 2" xfId="368" xr:uid="{00000000-0005-0000-0000-00006A010000}"/>
+    <cellStyle name="集計 2 2 6 2 2" xfId="369" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
+    <cellStyle name="集計 2 2 6 3" xfId="370" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
+    <cellStyle name="集計 2 2 6 3 2" xfId="371" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
+    <cellStyle name="集計 2 2 6 4" xfId="372" xr:uid="{00000000-0005-0000-0000-00006E010000}"/>
+    <cellStyle name="集計 2 2 6 4 2" xfId="373" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
+    <cellStyle name="集計 2 2 6 5" xfId="374" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
+    <cellStyle name="集計 2 2 6 5 2" xfId="375" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
+    <cellStyle name="集計 2 2 6 6" xfId="376" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
+    <cellStyle name="集計 2 2 6 6 2" xfId="377" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
+    <cellStyle name="集計 2 2 6 7" xfId="378" xr:uid="{00000000-0005-0000-0000-000074010000}"/>
+    <cellStyle name="集計 2 2 7" xfId="379" xr:uid="{00000000-0005-0000-0000-000075010000}"/>
+    <cellStyle name="集計 2 2 7 2" xfId="380" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
+    <cellStyle name="集計 2 2 8" xfId="381" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
+    <cellStyle name="集計 2 3" xfId="382" xr:uid="{00000000-0005-0000-0000-000078010000}"/>
+    <cellStyle name="出力 2" xfId="383" xr:uid="{00000000-0005-0000-0000-000079010000}"/>
+    <cellStyle name="出力 2 2" xfId="384" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
+    <cellStyle name="出力 2 2 2" xfId="385" xr:uid="{00000000-0005-0000-0000-00007B010000}"/>
+    <cellStyle name="出力 2 2 2 2" xfId="386" xr:uid="{00000000-0005-0000-0000-00007C010000}"/>
+    <cellStyle name="出力 2 2 2 2 2" xfId="387" xr:uid="{00000000-0005-0000-0000-00007D010000}"/>
+    <cellStyle name="出力 2 2 2 3" xfId="388" xr:uid="{00000000-0005-0000-0000-00007E010000}"/>
+    <cellStyle name="出力 2 2 2 3 2" xfId="389" xr:uid="{00000000-0005-0000-0000-00007F010000}"/>
+    <cellStyle name="出力 2 2 2 4" xfId="390" xr:uid="{00000000-0005-0000-0000-000080010000}"/>
+    <cellStyle name="出力 2 2 2 4 2" xfId="391" xr:uid="{00000000-0005-0000-0000-000081010000}"/>
+    <cellStyle name="出力 2 2 2 5" xfId="392" xr:uid="{00000000-0005-0000-0000-000082010000}"/>
+    <cellStyle name="出力 2 2 2 5 2" xfId="393" xr:uid="{00000000-0005-0000-0000-000083010000}"/>
+    <cellStyle name="出力 2 2 2 6" xfId="394" xr:uid="{00000000-0005-0000-0000-000084010000}"/>
+    <cellStyle name="出力 2 2 2 6 2" xfId="395" xr:uid="{00000000-0005-0000-0000-000085010000}"/>
+    <cellStyle name="出力 2 2 2 7" xfId="396" xr:uid="{00000000-0005-0000-0000-000086010000}"/>
+    <cellStyle name="出力 2 2 3" xfId="397" xr:uid="{00000000-0005-0000-0000-000087010000}"/>
+    <cellStyle name="出力 2 2 3 2" xfId="398" xr:uid="{00000000-0005-0000-0000-000088010000}"/>
+    <cellStyle name="出力 2 2 3 2 2" xfId="399" xr:uid="{00000000-0005-0000-0000-000089010000}"/>
+    <cellStyle name="出力 2 2 3 3" xfId="400" xr:uid="{00000000-0005-0000-0000-00008A010000}"/>
+    <cellStyle name="出力 2 2 3 3 2" xfId="401" xr:uid="{00000000-0005-0000-0000-00008B010000}"/>
+    <cellStyle name="出力 2 2 3 4" xfId="402" xr:uid="{00000000-0005-0000-0000-00008C010000}"/>
+    <cellStyle name="出力 2 2 3 4 2" xfId="403" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
+    <cellStyle name="出力 2 2 3 5" xfId="404" xr:uid="{00000000-0005-0000-0000-00008E010000}"/>
+    <cellStyle name="出力 2 2 3 5 2" xfId="405" xr:uid="{00000000-0005-0000-0000-00008F010000}"/>
+    <cellStyle name="出力 2 2 3 6" xfId="406" xr:uid="{00000000-0005-0000-0000-000090010000}"/>
+    <cellStyle name="出力 2 2 3 6 2" xfId="407" xr:uid="{00000000-0005-0000-0000-000091010000}"/>
+    <cellStyle name="出力 2 2 3 7" xfId="408" xr:uid="{00000000-0005-0000-0000-000092010000}"/>
+    <cellStyle name="出力 2 2 4" xfId="409" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
+    <cellStyle name="出力 2 2 4 2" xfId="410" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
+    <cellStyle name="出力 2 2 4 2 2" xfId="411" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
+    <cellStyle name="出力 2 2 4 3" xfId="412" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
+    <cellStyle name="出力 2 2 4 3 2" xfId="413" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
+    <cellStyle name="出力 2 2 4 4" xfId="414" xr:uid="{00000000-0005-0000-0000-000098010000}"/>
+    <cellStyle name="出力 2 2 4 4 2" xfId="415" xr:uid="{00000000-0005-0000-0000-000099010000}"/>
+    <cellStyle name="出力 2 2 4 5" xfId="416" xr:uid="{00000000-0005-0000-0000-00009A010000}"/>
+    <cellStyle name="出力 2 2 4 5 2" xfId="417" xr:uid="{00000000-0005-0000-0000-00009B010000}"/>
+    <cellStyle name="出力 2 2 4 6" xfId="418" xr:uid="{00000000-0005-0000-0000-00009C010000}"/>
+    <cellStyle name="出力 2 2 4 6 2" xfId="419" xr:uid="{00000000-0005-0000-0000-00009D010000}"/>
+    <cellStyle name="出力 2 2 4 7" xfId="420" xr:uid="{00000000-0005-0000-0000-00009E010000}"/>
+    <cellStyle name="出力 2 2 5" xfId="421" xr:uid="{00000000-0005-0000-0000-00009F010000}"/>
+    <cellStyle name="出力 2 2 5 2" xfId="422" xr:uid="{00000000-0005-0000-0000-0000A0010000}"/>
+    <cellStyle name="出力 2 2 5 2 2" xfId="423" xr:uid="{00000000-0005-0000-0000-0000A1010000}"/>
+    <cellStyle name="出力 2 2 5 3" xfId="424" xr:uid="{00000000-0005-0000-0000-0000A2010000}"/>
+    <cellStyle name="出力 2 2 5 3 2" xfId="425" xr:uid="{00000000-0005-0000-0000-0000A3010000}"/>
+    <cellStyle name="出力 2 2 5 4" xfId="426" xr:uid="{00000000-0005-0000-0000-0000A4010000}"/>
+    <cellStyle name="出力 2 2 5 4 2" xfId="427" xr:uid="{00000000-0005-0000-0000-0000A5010000}"/>
+    <cellStyle name="出力 2 2 5 5" xfId="428" xr:uid="{00000000-0005-0000-0000-0000A6010000}"/>
+    <cellStyle name="出力 2 2 5 5 2" xfId="429" xr:uid="{00000000-0005-0000-0000-0000A7010000}"/>
+    <cellStyle name="出力 2 2 5 6" xfId="430" xr:uid="{00000000-0005-0000-0000-0000A8010000}"/>
+    <cellStyle name="出力 2 2 6" xfId="431" xr:uid="{00000000-0005-0000-0000-0000A9010000}"/>
+    <cellStyle name="出力 2 2 6 2" xfId="432" xr:uid="{00000000-0005-0000-0000-0000AA010000}"/>
+    <cellStyle name="出力 2 2 6 2 2" xfId="433" xr:uid="{00000000-0005-0000-0000-0000AB010000}"/>
+    <cellStyle name="出力 2 2 6 3" xfId="434" xr:uid="{00000000-0005-0000-0000-0000AC010000}"/>
+    <cellStyle name="出力 2 2 6 3 2" xfId="435" xr:uid="{00000000-0005-0000-0000-0000AD010000}"/>
+    <cellStyle name="出力 2 2 6 4" xfId="436" xr:uid="{00000000-0005-0000-0000-0000AE010000}"/>
+    <cellStyle name="出力 2 2 6 4 2" xfId="437" xr:uid="{00000000-0005-0000-0000-0000AF010000}"/>
+    <cellStyle name="出力 2 2 6 5" xfId="438" xr:uid="{00000000-0005-0000-0000-0000B0010000}"/>
+    <cellStyle name="出力 2 2 6 5 2" xfId="439" xr:uid="{00000000-0005-0000-0000-0000B1010000}"/>
+    <cellStyle name="出力 2 2 6 6" xfId="440" xr:uid="{00000000-0005-0000-0000-0000B2010000}"/>
+    <cellStyle name="出力 2 2 6 6 2" xfId="441" xr:uid="{00000000-0005-0000-0000-0000B3010000}"/>
+    <cellStyle name="出力 2 2 6 7" xfId="442" xr:uid="{00000000-0005-0000-0000-0000B4010000}"/>
+    <cellStyle name="出力 2 2 7" xfId="443" xr:uid="{00000000-0005-0000-0000-0000B5010000}"/>
+    <cellStyle name="出力 2 2 7 2" xfId="444" xr:uid="{00000000-0005-0000-0000-0000B6010000}"/>
+    <cellStyle name="出力 2 2 8" xfId="445" xr:uid="{00000000-0005-0000-0000-0000B7010000}"/>
+    <cellStyle name="出力 2 3" xfId="446" xr:uid="{00000000-0005-0000-0000-0000B8010000}"/>
+    <cellStyle name="説明文 2" xfId="447" xr:uid="{00000000-0005-0000-0000-0000B9010000}"/>
+    <cellStyle name="入力 2" xfId="448" xr:uid="{00000000-0005-0000-0000-0000BA010000}"/>
+    <cellStyle name="入力 2 2" xfId="449" xr:uid="{00000000-0005-0000-0000-0000BB010000}"/>
+    <cellStyle name="入力 2 2 2" xfId="450" xr:uid="{00000000-0005-0000-0000-0000BC010000}"/>
+    <cellStyle name="入力 2 2 2 2" xfId="451" xr:uid="{00000000-0005-0000-0000-0000BD010000}"/>
+    <cellStyle name="入力 2 2 2 2 2" xfId="452" xr:uid="{00000000-0005-0000-0000-0000BE010000}"/>
+    <cellStyle name="入力 2 2 2 3" xfId="453" xr:uid="{00000000-0005-0000-0000-0000BF010000}"/>
+    <cellStyle name="入力 2 2 2 3 2" xfId="454" xr:uid="{00000000-0005-0000-0000-0000C0010000}"/>
+    <cellStyle name="入力 2 2 2 4" xfId="455" xr:uid="{00000000-0005-0000-0000-0000C1010000}"/>
+    <cellStyle name="入力 2 2 2 4 2" xfId="456" xr:uid="{00000000-0005-0000-0000-0000C2010000}"/>
+    <cellStyle name="入力 2 2 2 5" xfId="457" xr:uid="{00000000-0005-0000-0000-0000C3010000}"/>
+    <cellStyle name="入力 2 2 2 5 2" xfId="458" xr:uid="{00000000-0005-0000-0000-0000C4010000}"/>
+    <cellStyle name="入力 2 2 2 6" xfId="459" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
+    <cellStyle name="入力 2 2 2 6 2" xfId="460" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
+    <cellStyle name="入力 2 2 2 7" xfId="461" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
+    <cellStyle name="入力 2 2 3" xfId="462" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
+    <cellStyle name="入力 2 2 3 2" xfId="463" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
+    <cellStyle name="入力 2 2 3 2 2" xfId="464" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
+    <cellStyle name="入力 2 2 3 3" xfId="465" xr:uid="{00000000-0005-0000-0000-0000CB010000}"/>
+    <cellStyle name="入力 2 2 3 3 2" xfId="466" xr:uid="{00000000-0005-0000-0000-0000CC010000}"/>
+    <cellStyle name="入力 2 2 3 4" xfId="467" xr:uid="{00000000-0005-0000-0000-0000CD010000}"/>
+    <cellStyle name="入力 2 2 3 4 2" xfId="468" xr:uid="{00000000-0005-0000-0000-0000CE010000}"/>
+    <cellStyle name="入力 2 2 3 5" xfId="469" xr:uid="{00000000-0005-0000-0000-0000CF010000}"/>
+    <cellStyle name="入力 2 2 3 5 2" xfId="470" xr:uid="{00000000-0005-0000-0000-0000D0010000}"/>
+    <cellStyle name="入力 2 2 3 6" xfId="471" xr:uid="{00000000-0005-0000-0000-0000D1010000}"/>
+    <cellStyle name="入力 2 2 3 6 2" xfId="472" xr:uid="{00000000-0005-0000-0000-0000D2010000}"/>
+    <cellStyle name="入力 2 2 3 7" xfId="473" xr:uid="{00000000-0005-0000-0000-0000D3010000}"/>
+    <cellStyle name="入力 2 2 4" xfId="474" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
+    <cellStyle name="入力 2 2 4 2" xfId="475" xr:uid="{00000000-0005-0000-0000-0000D5010000}"/>
+    <cellStyle name="入力 2 2 4 2 2" xfId="476" xr:uid="{00000000-0005-0000-0000-0000D6010000}"/>
+    <cellStyle name="入力 2 2 4 3" xfId="477" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
+    <cellStyle name="入力 2 2 4 3 2" xfId="478" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
+    <cellStyle name="入力 2 2 4 4" xfId="479" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
+    <cellStyle name="入力 2 2 4 4 2" xfId="480" xr:uid="{00000000-0005-0000-0000-0000DA010000}"/>
+    <cellStyle name="入力 2 2 4 5" xfId="481" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
+    <cellStyle name="入力 2 2 4 5 2" xfId="482" xr:uid="{00000000-0005-0000-0000-0000DC010000}"/>
+    <cellStyle name="入力 2 2 4 6" xfId="483" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
+    <cellStyle name="入力 2 2 4 6 2" xfId="484" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
+    <cellStyle name="入力 2 2 4 7" xfId="485" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
+    <cellStyle name="入力 2 2 5" xfId="486" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
+    <cellStyle name="入力 2 2 5 2" xfId="487" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
+    <cellStyle name="入力 2 2 5 2 2" xfId="488" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
+    <cellStyle name="入力 2 2 5 3" xfId="489" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
+    <cellStyle name="入力 2 2 5 3 2" xfId="490" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
+    <cellStyle name="入力 2 2 5 4" xfId="491" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
+    <cellStyle name="入力 2 2 5 4 2" xfId="492" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
+    <cellStyle name="入力 2 2 5 5" xfId="493" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
+    <cellStyle name="入力 2 2 5 5 2" xfId="494" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
+    <cellStyle name="入力 2 2 5 6" xfId="495" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
+    <cellStyle name="入力 2 2 5 6 2" xfId="496" xr:uid="{00000000-0005-0000-0000-0000EA010000}"/>
+    <cellStyle name="入力 2 2 5 7" xfId="497" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
+    <cellStyle name="入力 2 2 6" xfId="498" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
+    <cellStyle name="入力 2 2 6 2" xfId="499" xr:uid="{00000000-0005-0000-0000-0000ED010000}"/>
+    <cellStyle name="入力 2 2 6 2 2" xfId="500" xr:uid="{00000000-0005-0000-0000-0000EE010000}"/>
+    <cellStyle name="入力 2 2 6 3" xfId="501" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
+    <cellStyle name="入力 2 2 6 3 2" xfId="502" xr:uid="{00000000-0005-0000-0000-0000F0010000}"/>
+    <cellStyle name="入力 2 2 6 4" xfId="503" xr:uid="{00000000-0005-0000-0000-0000F1010000}"/>
+    <cellStyle name="入力 2 2 6 4 2" xfId="504" xr:uid="{00000000-0005-0000-0000-0000F2010000}"/>
+    <cellStyle name="入力 2 2 6 5" xfId="505" xr:uid="{00000000-0005-0000-0000-0000F3010000}"/>
+    <cellStyle name="入力 2 2 6 5 2" xfId="506" xr:uid="{00000000-0005-0000-0000-0000F4010000}"/>
+    <cellStyle name="入力 2 2 6 6" xfId="507" xr:uid="{00000000-0005-0000-0000-0000F5010000}"/>
+    <cellStyle name="入力 2 2 7" xfId="508" xr:uid="{00000000-0005-0000-0000-0000F6010000}"/>
+    <cellStyle name="入力 2 2 7 2" xfId="509" xr:uid="{00000000-0005-0000-0000-0000F7010000}"/>
+    <cellStyle name="入力 2 2 8" xfId="510" xr:uid="{00000000-0005-0000-0000-0000F8010000}"/>
+    <cellStyle name="入力 2 3" xfId="511" xr:uid="{00000000-0005-0000-0000-0000F9010000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="512"/>
-    <cellStyle name="標準 11" xfId="513"/>
-    <cellStyle name="標準 11 2" xfId="514"/>
-    <cellStyle name="標準 11 2 2" xfId="515"/>
-    <cellStyle name="標準 11 2 2 2" xfId="516"/>
-    <cellStyle name="標準 11 2 3" xfId="517"/>
-    <cellStyle name="標準 11 2 3 2" xfId="518"/>
-    <cellStyle name="標準 11 2 4" xfId="519"/>
-    <cellStyle name="標準 11 2 4 2" xfId="520"/>
-    <cellStyle name="標準 11 2 5" xfId="521"/>
-    <cellStyle name="標準 11 3" xfId="522"/>
-    <cellStyle name="標準 11 3 2" xfId="523"/>
-    <cellStyle name="標準 11 3 2 2" xfId="524"/>
-    <cellStyle name="標準 11 3 3" xfId="525"/>
-    <cellStyle name="標準 11 3 3 2" xfId="526"/>
-    <cellStyle name="標準 11 3 4" xfId="527"/>
-    <cellStyle name="標準 11 4" xfId="528"/>
-    <cellStyle name="標準 11 4 2" xfId="529"/>
-    <cellStyle name="標準 11 5" xfId="530"/>
-    <cellStyle name="標準 11 5 2" xfId="531"/>
-    <cellStyle name="標準 11 6" xfId="532"/>
-    <cellStyle name="標準 11 6 2" xfId="533"/>
-    <cellStyle name="標準 11 7" xfId="534"/>
-    <cellStyle name="標準 2" xfId="2"/>
-    <cellStyle name="標準 2 2" xfId="535"/>
-    <cellStyle name="標準 2 2 2" xfId="536"/>
-    <cellStyle name="標準 2 3" xfId="537"/>
-    <cellStyle name="標準 2 4" xfId="538"/>
-    <cellStyle name="標準 2 4 2" xfId="539"/>
-    <cellStyle name="標準 2 4 2 2" xfId="540"/>
-    <cellStyle name="標準 2 4 3" xfId="541"/>
-    <cellStyle name="標準 2 4 4" xfId="542"/>
-    <cellStyle name="標準 2_フォーマット" xfId="543"/>
-    <cellStyle name="標準 3" xfId="3"/>
-    <cellStyle name="標準 3 2" xfId="544"/>
-    <cellStyle name="標準 3 2 2" xfId="545"/>
-    <cellStyle name="標準 4" xfId="546"/>
-    <cellStyle name="標準 5" xfId="547"/>
-    <cellStyle name="標準 5 2" xfId="548"/>
-    <cellStyle name="標準 5 3" xfId="549"/>
-    <cellStyle name="標準 5 4" xfId="550"/>
-    <cellStyle name="標準 6" xfId="551"/>
-    <cellStyle name="標準 6 2" xfId="552"/>
-    <cellStyle name="標準 6 3" xfId="553"/>
-    <cellStyle name="標準 7" xfId="554"/>
-    <cellStyle name="標準 8" xfId="555"/>
-    <cellStyle name="標準 9" xfId="556"/>
-    <cellStyle name="標準_~6362950" xfId="1"/>
-    <cellStyle name="標準_~6362950 2" xfId="4"/>
-    <cellStyle name="標準_画面標準" xfId="5"/>
-    <cellStyle name="未定義" xfId="557"/>
-    <cellStyle name="未定義 2" xfId="558"/>
-    <cellStyle name="良い 2" xfId="559"/>
+    <cellStyle name="標準 10" xfId="512" xr:uid="{00000000-0005-0000-0000-0000FB010000}"/>
+    <cellStyle name="標準 11" xfId="513" xr:uid="{00000000-0005-0000-0000-0000FC010000}"/>
+    <cellStyle name="標準 11 2" xfId="514" xr:uid="{00000000-0005-0000-0000-0000FD010000}"/>
+    <cellStyle name="標準 11 2 2" xfId="515" xr:uid="{00000000-0005-0000-0000-0000FE010000}"/>
+    <cellStyle name="標準 11 2 2 2" xfId="516" xr:uid="{00000000-0005-0000-0000-0000FF010000}"/>
+    <cellStyle name="標準 11 2 3" xfId="517" xr:uid="{00000000-0005-0000-0000-000000020000}"/>
+    <cellStyle name="標準 11 2 3 2" xfId="518" xr:uid="{00000000-0005-0000-0000-000001020000}"/>
+    <cellStyle name="標準 11 2 4" xfId="519" xr:uid="{00000000-0005-0000-0000-000002020000}"/>
+    <cellStyle name="標準 11 2 4 2" xfId="520" xr:uid="{00000000-0005-0000-0000-000003020000}"/>
+    <cellStyle name="標準 11 2 5" xfId="521" xr:uid="{00000000-0005-0000-0000-000004020000}"/>
+    <cellStyle name="標準 11 3" xfId="522" xr:uid="{00000000-0005-0000-0000-000005020000}"/>
+    <cellStyle name="標準 11 3 2" xfId="523" xr:uid="{00000000-0005-0000-0000-000006020000}"/>
+    <cellStyle name="標準 11 3 2 2" xfId="524" xr:uid="{00000000-0005-0000-0000-000007020000}"/>
+    <cellStyle name="標準 11 3 3" xfId="525" xr:uid="{00000000-0005-0000-0000-000008020000}"/>
+    <cellStyle name="標準 11 3 3 2" xfId="526" xr:uid="{00000000-0005-0000-0000-000009020000}"/>
+    <cellStyle name="標準 11 3 4" xfId="527" xr:uid="{00000000-0005-0000-0000-00000A020000}"/>
+    <cellStyle name="標準 11 4" xfId="528" xr:uid="{00000000-0005-0000-0000-00000B020000}"/>
+    <cellStyle name="標準 11 4 2" xfId="529" xr:uid="{00000000-0005-0000-0000-00000C020000}"/>
+    <cellStyle name="標準 11 5" xfId="530" xr:uid="{00000000-0005-0000-0000-00000D020000}"/>
+    <cellStyle name="標準 11 5 2" xfId="531" xr:uid="{00000000-0005-0000-0000-00000E020000}"/>
+    <cellStyle name="標準 11 6" xfId="532" xr:uid="{00000000-0005-0000-0000-00000F020000}"/>
+    <cellStyle name="標準 11 6 2" xfId="533" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
+    <cellStyle name="標準 11 7" xfId="534" xr:uid="{00000000-0005-0000-0000-000011020000}"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000012020000}"/>
+    <cellStyle name="標準 2 2" xfId="535" xr:uid="{00000000-0005-0000-0000-000013020000}"/>
+    <cellStyle name="標準 2 2 2" xfId="536" xr:uid="{00000000-0005-0000-0000-000014020000}"/>
+    <cellStyle name="標準 2 3" xfId="537" xr:uid="{00000000-0005-0000-0000-000015020000}"/>
+    <cellStyle name="標準 2 4" xfId="538" xr:uid="{00000000-0005-0000-0000-000016020000}"/>
+    <cellStyle name="標準 2 4 2" xfId="539" xr:uid="{00000000-0005-0000-0000-000017020000}"/>
+    <cellStyle name="標準 2 4 2 2" xfId="540" xr:uid="{00000000-0005-0000-0000-000018020000}"/>
+    <cellStyle name="標準 2 4 3" xfId="541" xr:uid="{00000000-0005-0000-0000-000019020000}"/>
+    <cellStyle name="標準 2 4 4" xfId="542" xr:uid="{00000000-0005-0000-0000-00001A020000}"/>
+    <cellStyle name="標準 2_フォーマット" xfId="543" xr:uid="{00000000-0005-0000-0000-00001B020000}"/>
+    <cellStyle name="標準 3" xfId="3" xr:uid="{00000000-0005-0000-0000-00001C020000}"/>
+    <cellStyle name="標準 3 2" xfId="544" xr:uid="{00000000-0005-0000-0000-00001D020000}"/>
+    <cellStyle name="標準 3 2 2" xfId="545" xr:uid="{00000000-0005-0000-0000-00001E020000}"/>
+    <cellStyle name="標準 4" xfId="546" xr:uid="{00000000-0005-0000-0000-00001F020000}"/>
+    <cellStyle name="標準 5" xfId="547" xr:uid="{00000000-0005-0000-0000-000020020000}"/>
+    <cellStyle name="標準 5 2" xfId="548" xr:uid="{00000000-0005-0000-0000-000021020000}"/>
+    <cellStyle name="標準 5 3" xfId="549" xr:uid="{00000000-0005-0000-0000-000022020000}"/>
+    <cellStyle name="標準 5 4" xfId="550" xr:uid="{00000000-0005-0000-0000-000023020000}"/>
+    <cellStyle name="標準 6" xfId="551" xr:uid="{00000000-0005-0000-0000-000024020000}"/>
+    <cellStyle name="標準 6 2" xfId="552" xr:uid="{00000000-0005-0000-0000-000025020000}"/>
+    <cellStyle name="標準 6 3" xfId="553" xr:uid="{00000000-0005-0000-0000-000026020000}"/>
+    <cellStyle name="標準 7" xfId="554" xr:uid="{00000000-0005-0000-0000-000027020000}"/>
+    <cellStyle name="標準 8" xfId="555" xr:uid="{00000000-0005-0000-0000-000028020000}"/>
+    <cellStyle name="標準 9" xfId="556" xr:uid="{00000000-0005-0000-0000-000029020000}"/>
+    <cellStyle name="標準_~6362950" xfId="1" xr:uid="{00000000-0005-0000-0000-00002A020000}"/>
+    <cellStyle name="標準_~6362950 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00002B020000}"/>
+    <cellStyle name="標準_画面標準" xfId="5" xr:uid="{00000000-0005-0000-0000-00002C020000}"/>
+    <cellStyle name="未定義" xfId="557" xr:uid="{00000000-0005-0000-0000-00002D020000}"/>
+    <cellStyle name="未定義 2" xfId="558" xr:uid="{00000000-0005-0000-0000-00002E020000}"/>
+    <cellStyle name="良い 2" xfId="559" xr:uid="{00000000-0005-0000-0000-00002F020000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -7093,7 +7082,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7161,19 +7156,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>122711</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="図 2">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -7207,7 +7207,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7249,7 +7249,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7282,9 +7282,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7317,6 +7334,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7492,20 +7526,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI513"/>
+  <dimension ref="A1:AI512"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="6"/>
+    <col min="1" max="16384" width="3.6640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="13.5" customHeight="1">
+    <row r="1" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -7542,7 +7576,7 @@
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
     </row>
-    <row r="2" spans="1:35" ht="13.15" customHeight="1">
+    <row r="2" spans="1:35" ht="13.2" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="7"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7579,7 +7613,7 @@
       <c r="AH2" s="3"/>
       <c r="AI2" s="3"/>
     </row>
-    <row r="3" spans="1:35" ht="13.5" customHeight="1">
+    <row r="3" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -7616,7 +7650,7 @@
       <c r="AH3" s="3"/>
       <c r="AI3" s="3"/>
     </row>
-    <row r="4" spans="1:35" ht="13.5" customHeight="1">
+    <row r="4" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -7653,7 +7687,7 @@
       <c r="AH4" s="3"/>
       <c r="AI4" s="3"/>
     </row>
-    <row r="5" spans="1:35" ht="13.5" customHeight="1">
+    <row r="5" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -7690,7 +7724,7 @@
       <c r="AH5" s="3"/>
       <c r="AI5" s="3"/>
     </row>
-    <row r="6" spans="1:35" ht="13.5" customHeight="1">
+    <row r="6" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -7727,7 +7761,7 @@
       <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
     </row>
-    <row r="7" spans="1:35" ht="13.5" customHeight="1">
+    <row r="7" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -7764,7 +7798,7 @@
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
     </row>
-    <row r="8" spans="1:35" ht="13.5" customHeight="1">
+    <row r="8" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -7801,7 +7835,7 @@
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
     </row>
-    <row r="9" spans="1:35" ht="13.5" customHeight="1">
+    <row r="9" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -7838,7 +7872,7 @@
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
     </row>
-    <row r="10" spans="1:35" ht="13.5" customHeight="1">
+    <row r="10" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -7875,7 +7909,7 @@
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
     </row>
-    <row r="11" spans="1:35" ht="13.5" customHeight="1">
+    <row r="11" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -7912,7 +7946,7 @@
       <c r="AH11" s="3"/>
       <c r="AI11" s="3"/>
     </row>
-    <row r="12" spans="1:35" ht="13.5" customHeight="1">
+    <row r="12" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -7949,7 +7983,7 @@
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
     </row>
-    <row r="13" spans="1:35" ht="13.5" customHeight="1">
+    <row r="13" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -7986,7 +8020,7 @@
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
     </row>
-    <row r="14" spans="1:35" ht="13.5" customHeight="1">
+    <row r="14" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -8023,7 +8057,7 @@
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
     </row>
-    <row r="15" spans="1:35" ht="13.5" customHeight="1">
+    <row r="15" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -8060,7 +8094,7 @@
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
     </row>
-    <row r="16" spans="1:35" ht="13.5" customHeight="1">
+    <row r="16" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -8097,7 +8131,7 @@
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
     </row>
-    <row r="17" spans="1:35" ht="13.5" customHeight="1">
+    <row r="17" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -8134,7 +8168,7 @@
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
     </row>
-    <row r="18" spans="1:35" ht="13.5" customHeight="1">
+    <row r="18" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -8171,7 +8205,7 @@
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
     </row>
-    <row r="19" spans="1:35" ht="13.5" customHeight="1">
+    <row r="19" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -8208,7 +8242,7 @@
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
     </row>
-    <row r="20" spans="1:35" ht="13.5" customHeight="1">
+    <row r="20" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -8245,7 +8279,7 @@
       <c r="AH20" s="3"/>
       <c r="AI20" s="3"/>
     </row>
-    <row r="21" spans="1:35" ht="13.5" customHeight="1">
+    <row r="21" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -8282,7 +8316,7 @@
       <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
     </row>
-    <row r="22" spans="1:35" ht="13.5" customHeight="1">
+    <row r="22" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -8319,7 +8353,7 @@
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
     </row>
-    <row r="23" spans="1:35" ht="17.25" customHeight="1">
+    <row r="23" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -8338,7 +8372,7 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -8358,7 +8392,7 @@
       <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
     </row>
-    <row r="24" spans="1:35" ht="13.5" customHeight="1">
+    <row r="24" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -8395,7 +8429,7 @@
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
     </row>
-    <row r="25" spans="1:35" ht="18" customHeight="1">
+    <row r="25" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -8414,7 +8448,7 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
@@ -8434,7 +8468,7 @@
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
     </row>
-    <row r="26" spans="1:35" ht="13.5" customHeight="1">
+    <row r="26" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -8471,7 +8505,7 @@
       <c r="AH26" s="3"/>
       <c r="AI26" s="3"/>
     </row>
-    <row r="27" spans="1:35" ht="13.5" customHeight="1">
+    <row r="27" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -8508,7 +8542,7 @@
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
     </row>
-    <row r="28" spans="1:35" ht="13.5" customHeight="1">
+    <row r="28" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -8545,7 +8579,7 @@
       <c r="AH28" s="3"/>
       <c r="AI28" s="3"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -8582,7 +8616,7 @@
       <c r="AH29" s="3"/>
       <c r="AI29" s="3"/>
     </row>
-    <row r="30" spans="1:35" ht="13.5" customHeight="1">
+    <row r="30" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -8619,7 +8653,7 @@
       <c r="AH30" s="3"/>
       <c r="AI30" s="3"/>
     </row>
-    <row r="31" spans="1:35" ht="18.75" customHeight="1">
+    <row r="31" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -8656,7 +8690,7 @@
       <c r="AH31" s="3"/>
       <c r="AI31" s="3"/>
     </row>
-    <row r="32" spans="1:35" ht="28.5">
+    <row r="32" spans="1:35" ht="28.8" x14ac:dyDescent="0.5">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -8693,7 +8727,7 @@
       <c r="AH32" s="3"/>
       <c r="AI32" s="3"/>
     </row>
-    <row r="33" spans="1:35" ht="24.75">
+    <row r="33" spans="1:35" ht="26.4" x14ac:dyDescent="0.5">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -8730,26 +8764,26 @@
       <c r="AH33" s="3"/>
       <c r="AI33" s="3"/>
     </row>
-    <row r="34" spans="1:35" ht="24.75">
+    <row r="34" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="8"/>
+      <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="8"/>
+      <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
       <c r="O34" s="15"/>
       <c r="P34" s="15"/>
       <c r="Q34" s="17"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="19"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
@@ -8767,7 +8801,7 @@
       <c r="AH34" s="3"/>
       <c r="AI34" s="3"/>
     </row>
-    <row r="35" spans="1:35" ht="13.5" customHeight="1">
+    <row r="35" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -8782,10 +8816,10 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="17"/>
       <c r="S35" s="19"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
@@ -8804,7 +8838,7 @@
       <c r="AH35" s="3"/>
       <c r="AI35" s="3"/>
     </row>
-    <row r="36" spans="1:35" ht="13.5" customHeight="1">
+    <row r="36" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -8819,11 +8853,11 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="21"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="18"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
@@ -8841,12 +8875,16 @@
       <c r="AH36" s="3"/>
       <c r="AI36" s="3"/>
     </row>
-    <row r="37" spans="1:35" ht="13.5" customHeight="1">
+    <row r="37" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
+      <c r="B37" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="E37" s="20" t="s">
+        <v>128</v>
+      </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -8856,12 +8894,11 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="3"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="S37" s="21" t="s">
+        <v>129</v>
+      </c>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
@@ -8878,16 +8915,14 @@
       <c r="AH37" s="3"/>
       <c r="AI37" s="3"/>
     </row>
-    <row r="38" spans="1:35" ht="13.5" customHeight="1">
+    <row r="38" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="22" t="s">
-        <v>129</v>
-      </c>
+      <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -8897,11 +8932,12 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="S38" s="23" t="s">
-        <v>130</v>
-      </c>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
@@ -8918,523 +8954,484 @@
       <c r="AH38" s="3"/>
       <c r="AI38" s="3"/>
     </row>
-    <row r="39" spans="1:35" ht="13.5" customHeight="1">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="3"/>
-      <c r="AB39" s="3"/>
-      <c r="AC39" s="3"/>
-      <c r="AD39" s="3"/>
-      <c r="AE39" s="3"/>
-      <c r="AF39" s="3"/>
-      <c r="AG39" s="3"/>
-      <c r="AH39" s="3"/>
-      <c r="AI39" s="3"/>
-    </row>
-    <row r="40" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="41" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="42" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="43" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="44" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="45" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="46" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="47" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="48" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
-    <row r="513" ht="13.5" customHeight="1"/>
+    <row r="39" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="40" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="41" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="42" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="43" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="44" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="45" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="46" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="47" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="48" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.5"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="E38" r:id="rId1"/>
+    <hyperlink ref="E37" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId2"/>
@@ -9444,7 +9441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9452,495 +9449,495 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58" style="1" customWidth="1"/>
     <col min="3" max="3" width="91" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="56.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="62.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="56.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="62.109375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="25" t="s">
+      <c r="F2" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="25" t="s">
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="161.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>28</v>
       </c>
+      <c r="E8" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>147</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="161.25" customHeight="1" thickTop="1">
-      <c r="A3" s="26" t="s">
+    <row r="9" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>18</v>
+      <c r="B22" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="161.25" customHeight="1">
-      <c r="A4" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>133</v>
+    <row r="23" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="161.25" customHeight="1">
-      <c r="A5" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="161.25" customHeight="1">
-      <c r="A6" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="161.25" customHeight="1">
-      <c r="A7" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="161.25" customHeight="1">
-      <c r="A8" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="161.25" customHeight="1">
-      <c r="A9" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="161.25" customHeight="1">
-      <c r="A10" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="161.25" customHeight="1">
-      <c r="A11" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="161.25" customHeight="1">
-      <c r="A12" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="161.25" customHeight="1">
-      <c r="A13" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="161.25" customHeight="1">
-      <c r="A14" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="161.25" customHeight="1">
-      <c r="A15" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="161.25" customHeight="1">
-      <c r="A16" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" ht="161.25" customHeight="1">
-      <c r="A17" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="161.25" customHeight="1">
-      <c r="A18" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="161.25" customHeight="1">
-      <c r="A19" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="161.25" customHeight="1">
-      <c r="A20" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="161.25" customHeight="1">
-      <c r="A21" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="161.25" customHeight="1">
-      <c r="A22" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="161.25" customHeight="1">
-      <c r="A23" s="27" t="s">
+    <row r="24" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="27" t="s">
+      <c r="B24" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="161.25" customHeight="1">
-      <c r="A24" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="27" t="s">
+      <c r="D24" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="27" t="s">
+      <c r="E24" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="F24" s="25" t="s">
         <v>54</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
